--- a/mysql-learning/index.xlsx
+++ b/mysql-learning/index.xlsx
@@ -541,7 +541,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
